--- a/LM_Dirichlet.xlsx
+++ b/LM_Dirichlet.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>45.07184150691771</v>
+        <v>33.92447836687657</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5665327291053</v>
+        <v>38.74088523887035</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>47.36862889121706</v>
+        <v>41.51603232825109</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0202604981593</v>
+        <v>19.30685100172052</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>55.45247923642586</v>
+        <v>51.30742784165845</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>40.84895928888388</v>
+        <v>43.22020356332881</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>72.95760863470886</v>
+        <v>77.45092320635673</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>39.34468586382599</v>
+        <v>47.65242598008452</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>39.34468586382599</v>
+        <v>47.65242598008452</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>42.04536638164423</v>
+        <v>46.01777167057767</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>41.24850119441017</v>
+        <v>41.38575801973411</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>69.28936340305768</v>
+        <v>63.48474825906509</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>28.00460344291986</v>
+        <v>34.42817497718888</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>48.49631417687132</v>
+        <v>38.69590812053653</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>155.4703227311411</v>
+        <v>136.9844794312557</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>39.20965560482836</v>
+        <v>44.70390602483018</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>-26.10001759443969</v>
+        <v>-35.88674218857724</v>
       </c>
       <c r="E18" t="n">
-        <v>321549</v>
+        <v>339246</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>-26.10001759443969</v>
+        <v>-35.88674218857724</v>
       </c>
       <c r="E19" t="n">
-        <v>321548</v>
+        <v>339245</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>17.98600605824885</v>
+        <v>11.48093716478991</v>
       </c>
       <c r="E20" t="n">
-        <v>748</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>29.41632116294417</v>
+        <v>24.11344898834002</v>
       </c>
       <c r="E21" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5760067535820568</v>
+        <v>-6.179126728363986</v>
       </c>
       <c r="E22" t="n">
-        <v>17366</v>
+        <v>185451</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>27.46055141674808</v>
+        <v>24.51819808629609</v>
       </c>
       <c r="E23" t="n">
-        <v>252</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>14.63654629248774</v>
+        <v>20.71503987106581</v>
       </c>
       <c r="E24" t="n">
-        <v>1127</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>11.08550360605882</v>
+        <v>5.730675219391742</v>
       </c>
       <c r="E25" t="n">
-        <v>1743</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>37.613893202384</v>
+        <v>34.94287888609922</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>30.23048953512465</v>
+        <v>20.60235815485844</v>
       </c>
       <c r="E27" t="n">
-        <v>174</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>15.70812739516845</v>
+        <v>23.85742944658494</v>
       </c>
       <c r="E28" t="n">
-        <v>991</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>15.0457378237997</v>
+        <v>16.05000990659861</v>
       </c>
       <c r="E29" t="n">
-        <v>1076</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>34.0437147031399</v>
+        <v>25.09417986580905</v>
       </c>
       <c r="E30" t="n">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>32.90202355748105</v>
+        <v>27.48567603366365</v>
       </c>
       <c r="E31" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>18.74109462573826</v>
+        <v>28.24244346312167</v>
       </c>
       <c r="E32" t="n">
-        <v>691</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>50.36537016185266</v>
+        <v>38.20478603841094</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>30.51684846915632</v>
+        <v>32.1249326491195</v>
       </c>
       <c r="E34" t="n">
-        <v>171</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>32.30006374553071</v>
+        <v>32.68520332351573</v>
       </c>
       <c r="E35" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>41.66591842751283</v>
+        <v>30.26155881025287</v>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>14.82657036297282</v>
+        <v>6.381946554495457</v>
       </c>
       <c r="E37" t="n">
-        <v>1103</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>45.12221539950727</v>
+        <v>37.68780925143113</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>46.19647050727146</v>
+        <v>37.28473745567493</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>36.95813158369113</v>
+        <v>35.52253588501029</v>
       </c>
       <c r="E40" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>48.00111926783429</v>
+        <v>35.86108270155269</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>23.20712018894264</v>
+        <v>25.4924701425117</v>
       </c>
       <c r="E42" t="n">
-        <v>415</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>21.02203907362529</v>
+        <v>15.53643405944698</v>
       </c>
       <c r="E43" t="n">
-        <v>540</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>43.06464870843445</v>
+        <v>37.91275900701848</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>32.00649603219961</v>
+        <v>25.26686481350454</v>
       </c>
       <c r="E45" t="n">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>35.62979236317436</v>
+        <v>30.68112119337948</v>
       </c>
       <c r="E46" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>45.10105763968831</v>
+        <v>36.31247392384341</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>25.9888872326156</v>
+        <v>14.8943664903794</v>
       </c>
       <c r="E48" t="n">
-        <v>290</v>
+        <v>868</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>30.19283709131607</v>
+        <v>29.82610626061746</v>
       </c>
       <c r="E49" t="n">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>26.75084690727896</v>
+        <v>18.14234301180876</v>
       </c>
       <c r="E50" t="n">
-        <v>268</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>48.1250536060122</v>
+        <v>37.41456141876268</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>33.9494951601778</v>
+        <v>32.41703140175156</v>
       </c>
       <c r="E52" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>16.80000445451157</v>
+        <v>14.58754634962358</v>
       </c>
       <c r="E53" t="n">
-        <v>880</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>51.77691128436932</v>
+        <v>52.89062525067413</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>18.82101648407878</v>
+        <v>14.07343826666369</v>
       </c>
       <c r="E55" t="n">
-        <v>688</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>35.28766239403789</v>
+        <v>33.48378053625158</v>
       </c>
       <c r="E56" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>51.90679956382195</v>
+        <v>43.59213623784898</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>34.19868938652819</v>
+        <v>29.4624541594411</v>
       </c>
       <c r="E58" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>29.59831081675782</v>
+        <v>22.91419038116846</v>
       </c>
       <c r="E59" t="n">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>47.48098217371086</v>
+        <v>47.50520722708509</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>35.19214828192432</v>
+        <v>25.3628976902394</v>
       </c>
       <c r="E61" t="n">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>36.32544982447116</v>
+        <v>40.09286692154411</v>
       </c>
       <c r="E62" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>43.55843088948717</v>
+        <v>36.50539333819648</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>38.96193012260784</v>
+        <v>33.83668540530918</v>
       </c>
       <c r="E64" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>42.0335262177941</v>
+        <v>36.91958672523156</v>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>46.06766538544238</v>
+        <v>39.64027819814038</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>44.84420538891996</v>
+        <v>39.85488604393797</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>14.95110382777582</v>
+        <v>8.085919348984179</v>
       </c>
       <c r="E68" t="n">
-        <v>1088</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>42.58071136208943</v>
+        <v>40.50107318388292</v>
       </c>
       <c r="E69" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>39.39496363808704</v>
+        <v>36.52828358429391</v>
       </c>
       <c r="E70" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>44.17676439535428</v>
+        <v>39.78189439706399</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>44.08048905169415</v>
+        <v>38.85592921750516</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>41.86106041941812</v>
+        <v>38.47050457911206</v>
       </c>
       <c r="E73" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>22.96147389313276</v>
+        <v>16.14411547629217</v>
       </c>
       <c r="E74" t="n">
-        <v>428</v>
+        <v>712</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.930090507351601</v>
+        <v>-9.20417405722239</v>
       </c>
       <c r="E75" t="n">
-        <v>147012</v>
+        <v>236184</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>-16.9398244566714</v>
+        <v>-21.06025006731175</v>
       </c>
       <c r="E76" t="n">
-        <v>306021</v>
+        <v>327658</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>33.05095441896736</v>
+        <v>53.93148460057296</v>
       </c>
       <c r="E77" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>72.60534387843489</v>
+        <v>85.79590436777937</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>56.1112345440384</v>
+        <v>48.65596913412872</v>
       </c>
       <c r="E79" t="n">
-        <v>36</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>13.07549888500645</v>
+        <v>34.40364096032425</v>
       </c>
       <c r="E80" t="n">
-        <v>1911</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>62.54923019357855</v>
+        <v>34.70719904377307</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>-26.70997565043444</v>
+        <v>43.70941310697893</v>
       </c>
       <c r="E82" t="n">
-        <v>267692</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>96.82491169326242</v>
+        <v>133.9475681714238</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>51.6325485111652</v>
+        <v>68.06553098966717</v>
       </c>
       <c r="E84" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>86.74897567179619</v>
+        <v>88.65800251336839</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>105.4210918021405</v>
+        <v>101.3501735602656</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>67.90973821334694</v>
+        <v>71.5756282633598</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>59.43128467490583</v>
+        <v>29.64857770412175</v>
       </c>
       <c r="E88" t="n">
-        <v>28</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>112.2111819263077</v>
+        <v>119.9006707593306</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>63.94061713594904</v>
+        <v>59.67878748126132</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>57.79005445651675</v>
+        <v>71.22686189607469</v>
       </c>
       <c r="E91" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>49.19005118071525</v>
+        <v>8.606057708069322</v>
       </c>
       <c r="E92" t="n">
-        <v>67</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>47.88260579739335</v>
+        <v>51.15190253418152</v>
       </c>
       <c r="E93" t="n">
-        <v>71</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>125.1684302044852</v>
+        <v>99.25352941600272</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>37.95289524557029</v>
+        <v>40.96282463746354</v>
       </c>
       <c r="E95" t="n">
-        <v>205</v>
+        <v>761</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>40.09523611727795</v>
+        <v>48.68748208562501</v>
       </c>
       <c r="E96" t="n">
-        <v>172</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>44.73556915895884</v>
+        <v>81.47786341223562</v>
       </c>
       <c r="E97" t="n">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>38.90277563030736</v>
+        <v>102.7864368686857</v>
       </c>
       <c r="E98" t="n">
-        <v>190</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>39.93146687076039</v>
+        <v>70.02989222635324</v>
       </c>
       <c r="E99" t="n">
-        <v>174</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>50.17336475963415</v>
+        <v>61.42691380665059</v>
       </c>
       <c r="E100" t="n">
-        <v>58</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>50.13640168388069</v>
+        <v>61.12349221902571</v>
       </c>
       <c r="E101" t="n">
-        <v>59</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>55.73291479433515</v>
+        <v>104.8058179475204</v>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>41.33850275295623</v>
+        <v>72.26144592524905</v>
       </c>
       <c r="E103" t="n">
-        <v>154</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>21.94705021393136</v>
+        <v>59.35644898735573</v>
       </c>
       <c r="E104" t="n">
-        <v>843</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>7.888042622341231</v>
+        <v>122.7541260367211</v>
       </c>
       <c r="E105" t="n">
-        <v>2969</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>31.69237784634915</v>
+        <v>40.95300538458845</v>
       </c>
       <c r="E106" t="n">
-        <v>345</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>39.34243280317264</v>
+        <v>94.62146767408734</v>
       </c>
       <c r="E107" t="n">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>26.1362798459723</v>
+        <v>37.70785431154306</v>
       </c>
       <c r="E108" t="n">
-        <v>568</v>
+        <v>919</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>50.41956531171604</v>
+        <v>44.87785865607276</v>
       </c>
       <c r="E109" t="n">
-        <v>57</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>89.59639920325922</v>
+        <v>95.57288386697502</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>65.52513619957298</v>
+        <v>89.38858387964447</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>54.05270148176963</v>
+        <v>84.7182520119954</v>
       </c>
       <c r="E112" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>30.31790355061892</v>
+        <v>71.47664225260361</v>
       </c>
       <c r="E113" t="n">
-        <v>383</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>4.194571276895928</v>
+        <v>44.59028620516651</v>
       </c>
       <c r="E114" t="n">
-        <v>4314</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>-4.549780913723367</v>
+        <v>-1.80445490515902</v>
       </c>
       <c r="E115" t="n">
-        <v>130270</v>
+        <v>40741</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>13.77626191521781</v>
+        <v>32.45467922333756</v>
       </c>
       <c r="E116" t="n">
-        <v>411</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>-4.943232984385091</v>
+        <v>44.29787957414196</v>
       </c>
       <c r="E117" t="n">
-        <v>136943</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1876163403078195</v>
+        <v>23.37711274254923</v>
       </c>
       <c r="E118" t="n">
-        <v>10811</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>6.246069169896764</v>
+        <v>44.35969362951982</v>
       </c>
       <c r="E119" t="n">
-        <v>1491</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>-8.220093838886527</v>
+        <v>29.05966481492079</v>
       </c>
       <c r="E120" t="n">
-        <v>183721</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>32.92765714318343</v>
+        <v>31.53370178374582</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.936929318943648</v>
+        <v>15.60121403596003</v>
       </c>
       <c r="E122" t="n">
-        <v>64325</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.491369372142529</v>
+        <v>30.37478571311231</v>
       </c>
       <c r="E123" t="n">
-        <v>8996</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.947472149968718</v>
+        <v>-0.7149242604851054</v>
       </c>
       <c r="E124" t="n">
-        <v>64629</v>
+        <v>21954</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>2.20755272432811</v>
+        <v>31.34294976376268</v>
       </c>
       <c r="E125" t="n">
-        <v>4064</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>15.17325940917594</v>
+        <v>40.88521470967488</v>
       </c>
       <c r="E126" t="n">
-        <v>312</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3011570550221094</v>
+        <v>28.6718929914402</v>
       </c>
       <c r="E127" t="n">
-        <v>17131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>17.46271647946002</v>
+        <v>35.99549196147427</v>
       </c>
       <c r="E128" t="n">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>2.677331842577999</v>
+        <v>28.94424142387228</v>
       </c>
       <c r="E129" t="n">
-        <v>3451</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>3.731605283335027</v>
+        <v>5.897536870386517</v>
       </c>
       <c r="E130" t="n">
-        <v>2533</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>7.075680916443773</v>
+        <v>7.636870315725137</v>
       </c>
       <c r="E131" t="n">
-        <v>1287</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>24.74911908461902</v>
+        <v>25.31914684125089</v>
       </c>
       <c r="E132" t="n">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>3.26867181644846</v>
+        <v>29.32792834969973</v>
       </c>
       <c r="E133" t="n">
-        <v>2891</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>5.617142273925381</v>
+        <v>39.55115666500972</v>
       </c>
       <c r="E134" t="n">
-        <v>1681</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>18.04487354160749</v>
+        <v>45.08179649185924</v>
       </c>
       <c r="E135" t="n">
-        <v>135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>12.37146751185858</v>
+        <v>29.38889561918676</v>
       </c>
       <c r="E136" t="n">
-        <v>511</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>8.834930183482939</v>
+        <v>33.66577083000565</v>
       </c>
       <c r="E137" t="n">
-        <v>944</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>17.31293345839651</v>
+        <v>36.77409883880406</v>
       </c>
       <c r="E138" t="n">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>10.85481714451237</v>
+        <v>35.37182483055922</v>
       </c>
       <c r="E139" t="n">
-        <v>673</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>9.007578152269502</v>
+        <v>32.99720343827751</v>
       </c>
       <c r="E140" t="n">
-        <v>919</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.2315028246265527</v>
+        <v>-3.210234911325689</v>
       </c>
       <c r="E141" t="n">
-        <v>15911</v>
+        <v>76078</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>-3.086889355059846</v>
+        <v>19.25393300629313</v>
       </c>
       <c r="E142" t="n">
-        <v>98587</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>7.986986212535683</v>
+        <v>18.00023290302806</v>
       </c>
       <c r="E143" t="n">
-        <v>1086</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>26.34533798620406</v>
+        <v>48.11914398060007</v>
       </c>
       <c r="E144" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>20.66723656873211</v>
+        <v>19.38364408409419</v>
       </c>
       <c r="E145" t="n">
-        <v>59</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>24.9503548990337</v>
+        <v>23.54212113733856</v>
       </c>
       <c r="E146" t="n">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>19.96952118068359</v>
+        <v>22.96708105549799</v>
       </c>
       <c r="E147" t="n">
-        <v>72</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>2.365421539124561</v>
+        <v>9.374946684497555</v>
       </c>
       <c r="E148" t="n">
-        <v>3847</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>2.365421539124561</v>
+        <v>9.374946684497555</v>
       </c>
       <c r="E149" t="n">
-        <v>3846</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>6.537659881487663</v>
+        <v>31.98876945982312</v>
       </c>
       <c r="E150" t="n">
-        <v>1425</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>15.16792042899741</v>
+        <v>-4.734301343306491</v>
       </c>
       <c r="E151" t="n">
-        <v>313</v>
+        <v>111075</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1.833065449839211</v>
+        <v>20.98029425915266</v>
       </c>
       <c r="E152" t="n">
-        <v>4803</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>-11.61138531747546</v>
+        <v>-6.306237605283009</v>
       </c>
       <c r="E153" t="n">
-        <v>225576</v>
+        <v>137166</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>14.60459532291268</v>
+        <v>36.74778848308195</v>
       </c>
       <c r="E154" t="n">
-        <v>357</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1.538037592396424</v>
+        <v>26.82230319094277</v>
       </c>
       <c r="E155" t="n">
-        <v>5473</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>7.950235089825352</v>
+        <v>32.07173837999117</v>
       </c>
       <c r="E156" t="n">
-        <v>1099</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>3.047727945053101</v>
+        <v>26.50066235360853</v>
       </c>
       <c r="E157" t="n">
-        <v>3081</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>4.912612042240195</v>
+        <v>22.92089276277645</v>
       </c>
       <c r="E158" t="n">
-        <v>1947</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>3.160719866941164</v>
+        <v>30.26236314649672</v>
       </c>
       <c r="E159" t="n">
-        <v>2990</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>4.45739666181932</v>
+        <v>36.85140658314784</v>
       </c>
       <c r="E160" t="n">
-        <v>2151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.4054947612348077</v>
+        <v>26.55748356026698</v>
       </c>
       <c r="E161" t="n">
-        <v>19894</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.3752678376717302</v>
+        <v>21.26777885027235</v>
       </c>
       <c r="E162" t="n">
-        <v>19005</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>2.860993145603468</v>
+        <v>26.35241855011515</v>
       </c>
       <c r="E163" t="n">
-        <v>3248</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>24.29466453032887</v>
+        <v>53.5690801576576</v>
       </c>
       <c r="E164" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>13.71595263019326</v>
+        <v>17.70156111752126</v>
       </c>
       <c r="E165" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>13.16123307143047</v>
+        <v>39.20314984825222</v>
       </c>
       <c r="E166" t="n">
-        <v>439</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>7.974081452577211</v>
+        <v>30.29112464495634</v>
       </c>
       <c r="E167" t="n">
-        <v>1091</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>10.95759204777148</v>
+        <v>39.92676914854026</v>
       </c>
       <c r="E168" t="n">
-        <v>662</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>5.929477875462094</v>
+        <v>38.74364437815839</v>
       </c>
       <c r="E169" t="n">
-        <v>1587</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>3.899867604056251</v>
+        <v>25.49099586976369</v>
       </c>
       <c r="E170" t="n">
-        <v>2437</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>10.33151527093741</v>
+        <v>41.78052233836718</v>
       </c>
       <c r="E171" t="n">
-        <v>732</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>2.210293477794167</v>
+        <v>34.61293411816371</v>
       </c>
       <c r="E172" t="n">
-        <v>4054</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>-7.403997412469781</v>
+        <v>23.29667726289567</v>
       </c>
       <c r="E173" t="n">
-        <v>173036</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>9.631300975370984</v>
+        <v>10.21906383581025</v>
       </c>
       <c r="E174" t="n">
-        <v>2344</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>38.68019787090134</v>
+        <v>54.36344680487989</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>40.16797599018319</v>
+        <v>50.30674669660922</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>23.66898730046827</v>
+        <v>37.84238426999778</v>
       </c>
       <c r="E177" t="n">
-        <v>158</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>42.30415314016141</v>
+        <v>39.19205746514942</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1.429089626129607</v>
+        <v>-0.04936277544016754</v>
       </c>
       <c r="E179" t="n">
-        <v>12601</v>
+        <v>19022</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>23.86299237047983</v>
+        <v>17.04204972379311</v>
       </c>
       <c r="E180" t="n">
-        <v>150</v>
+        <v>918</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>32.50986189441562</v>
+        <v>36.87188427661368</v>
       </c>
       <c r="E181" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>20.78957551986517</v>
+        <v>18.90111343012274</v>
       </c>
       <c r="E182" t="n">
-        <v>303</v>
+        <v>728</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>13.55307900434229</v>
+        <v>15.83659346187564</v>
       </c>
       <c r="E183" t="n">
-        <v>1220</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>21.06623939189613</v>
+        <v>18.36906453350064</v>
       </c>
       <c r="E184" t="n">
-        <v>293</v>
+        <v>780</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>9.631399431428207</v>
+        <v>6.449724725920383</v>
       </c>
       <c r="E185" t="n">
-        <v>2343</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>15.02138486805008</v>
+        <v>10.63974537181196</v>
       </c>
       <c r="E186" t="n">
-        <v>959</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>12.26307488337834</v>
+        <v>30.17723878148313</v>
       </c>
       <c r="E187" t="n">
-        <v>1534</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>9.951695793212355</v>
+        <v>-2.091577942791712</v>
       </c>
       <c r="E188" t="n">
-        <v>2216</v>
+        <v>57991</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>21.62222176833603</v>
+        <v>20.66383272255746</v>
       </c>
       <c r="E189" t="n">
-        <v>257</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>7.90735820959787</v>
+        <v>13.52587666863568</v>
       </c>
       <c r="E190" t="n">
-        <v>3125</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>9.573092491887955</v>
+        <v>2.407706318600205</v>
       </c>
       <c r="E191" t="n">
-        <v>2367</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>8.97978808034525</v>
+        <v>8.594056806520648</v>
       </c>
       <c r="E192" t="n">
-        <v>2621</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>12.95073082195323</v>
+        <v>11.40801156974023</v>
       </c>
       <c r="E193" t="n">
-        <v>1351</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>10.21494564449715</v>
+        <v>4.791607083326717</v>
       </c>
       <c r="E194" t="n">
-        <v>2122</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>34.842755306108</v>
+        <v>55.50368711774405</v>
       </c>
       <c r="E195" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>42.5182819353499</v>
+        <v>40.84116487855057</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>42.5182819353499</v>
+        <v>40.84116487855057</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>22.283516994393</v>
+        <v>25.53217578597582</v>
       </c>
       <c r="E198" t="n">
-        <v>224</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>25.5326249029877</v>
+        <v>33.86404923191262</v>
       </c>
       <c r="E199" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>28.67286687447384</v>
+        <v>46.08130207740079</v>
       </c>
       <c r="E200" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>11.63961483062743</v>
+        <v>8.243036637088277</v>
       </c>
       <c r="E201" t="n">
-        <v>1685</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>18.63466293333189</v>
+        <v>20.5084181805038</v>
       </c>
       <c r="E202" t="n">
-        <v>490</v>
+        <v>595</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>22.04615995864458</v>
+        <v>29.45551117635812</v>
       </c>
       <c r="E203" t="n">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>19.43945746002562</v>
+        <v>25.393046870891</v>
       </c>
       <c r="E204" t="n">
-        <v>381</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>13.9531326505567</v>
+        <v>16.12387549492044</v>
       </c>
       <c r="E205" t="n">
-        <v>1554</v>
+        <v>906</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>26.59116025874916</v>
+        <v>26.52933828236269</v>
       </c>
       <c r="E206" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>31.13641050549437</v>
+        <v>38.6361482494291</v>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1.395283953204167</v>
+        <v>0.3262371511235926</v>
       </c>
       <c r="E208" t="n">
-        <v>19219</v>
+        <v>23326</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>17.92520856235409</v>
+        <v>21.90888134948446</v>
       </c>
       <c r="E209" t="n">
-        <v>561</v>
+        <v>264</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>22.27597910480485</v>
+        <v>21.17800928132768</v>
       </c>
       <c r="E210" t="n">
-        <v>133</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6249583558897065</v>
+        <v>6.87557783072644</v>
       </c>
       <c r="E211" t="n">
-        <v>24511</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>22.15273080876862</v>
+        <v>24.66547386575844</v>
       </c>
       <c r="E212" t="n">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>23.49223102731757</v>
+        <v>13.38963676787264</v>
       </c>
       <c r="E213" t="n">
-        <v>93</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>19.97779797753405</v>
+        <v>15.04731494327297</v>
       </c>
       <c r="E214" t="n">
-        <v>334</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>24.92507214555511</v>
+        <v>33.01265066628348</v>
       </c>
       <c r="E215" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>23.66139306857416</v>
+        <v>26.0637834698904</v>
       </c>
       <c r="E216" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>26.15192810260789</v>
+        <v>28.97766574909485</v>
       </c>
       <c r="E217" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>25.85096428003911</v>
+        <v>32.21773574737071</v>
       </c>
       <c r="E218" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>24.57235840005273</v>
+        <v>26.24631474538615</v>
       </c>
       <c r="E219" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>26.25007381846669</v>
+        <v>23.96774345455542</v>
       </c>
       <c r="E220" t="n">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>20.68940497009311</v>
+        <v>24.84380497917804</v>
       </c>
       <c r="E221" t="n">
-        <v>269</v>
+        <v>108</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>16.32212881264811</v>
+        <v>21.84667754854313</v>
       </c>
       <c r="E222" t="n">
-        <v>855</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>16.47937516246873</v>
+        <v>17.90384661455723</v>
       </c>
       <c r="E223" t="n">
-        <v>813</v>
+        <v>622</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>3.521682100509674</v>
+        <v>3.827429819914168</v>
       </c>
       <c r="E224" t="n">
-        <v>11932</v>
+        <v>10306</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>20.3951874462301</v>
+        <v>22.44760890676538</v>
       </c>
       <c r="E225" t="n">
-        <v>303</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>11.64806832028441</v>
+        <v>12.06840719901141</v>
       </c>
       <c r="E226" t="n">
-        <v>2622</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>11.98095732902451</v>
+        <v>17.69932007825678</v>
       </c>
       <c r="E227" t="n">
-        <v>2419</v>
+        <v>646</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>21.53070896206869</v>
+        <v>25.48057612027259</v>
       </c>
       <c r="E228" t="n">
-        <v>168</v>
+        <v>94</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>21.57242598320174</v>
+        <v>27.83895974993462</v>
       </c>
       <c r="E229" t="n">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>34.10911986536697</v>
+        <v>45.73839382326805</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>26.21730722818028</v>
+        <v>32.47200734582204</v>
       </c>
       <c r="E231" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>24.36775735898647</v>
+        <v>32.04871217097739</v>
       </c>
       <c r="E232" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>21.62559959754568</v>
+        <v>26.28344730091651</v>
       </c>
       <c r="E233" t="n">
-        <v>161</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>16.80168614051903</v>
+        <v>30.69608984098461</v>
       </c>
       <c r="E234" t="n">
-        <v>739</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>26.56821368245393</v>
+        <v>29.12208793415956</v>
       </c>
       <c r="E235" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.5752945777871057</v>
+        <v>7.80639118083779</v>
       </c>
       <c r="E236" t="n">
-        <v>56505</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1.816968009489846</v>
+        <v>5.719211683825909</v>
       </c>
       <c r="E237" t="n">
-        <v>17251</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>20.61968634540593</v>
+        <v>27.55747380183548</v>
       </c>
       <c r="E238" t="n">
-        <v>272</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>26.18918951674183</v>
+        <v>33.17736870819387</v>
       </c>
       <c r="E239" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>15.00759604710842</v>
+        <v>13.53809607210265</v>
       </c>
       <c r="E240" t="n">
-        <v>1180</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>23.10905595812612</v>
+        <v>27.12768658306371</v>
       </c>
       <c r="E241" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>6.760361214978902</v>
+        <v>5.313119003038464</v>
       </c>
       <c r="E242" t="n">
-        <v>6606</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>30.4209906860139</v>
+        <v>25.03915292247095</v>
       </c>
       <c r="E243" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.03326032665106515</v>
+        <v>9.111661035222623</v>
       </c>
       <c r="E244" t="n">
-        <v>33521</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>28.58312618709337</v>
+        <v>36.29365690839379</v>
       </c>
       <c r="E245" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>21.83632298322569</v>
+        <v>18.23289391165005</v>
       </c>
       <c r="E246" t="n">
-        <v>150</v>
+        <v>585</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>4.172704636792346</v>
+        <v>7.548353459533317</v>
       </c>
       <c r="E247" t="n">
-        <v>10537</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>15.48681127086697</v>
+        <v>15.19773612274686</v>
       </c>
       <c r="E248" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>20.13197904268942</v>
+        <v>6.8491761884377</v>
       </c>
       <c r="E249" t="n">
-        <v>5</v>
+        <v>417</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>13.0658948943405</v>
+        <v>0.702535386232424</v>
       </c>
       <c r="E250" t="n">
-        <v>56</v>
+        <v>16850</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>15.43790852818431</v>
+        <v>3.676916029502879</v>
       </c>
       <c r="E251" t="n">
-        <v>24</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>17.19786462897892</v>
+        <v>18.55604201732196</v>
       </c>
       <c r="E252" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>23.45000361280779</v>
+        <v>4.264019145308191</v>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>18.21363290338508</v>
+        <v>2.483747498472947</v>
       </c>
       <c r="E254" t="n">
-        <v>8</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>17.32247059285294</v>
+        <v>14.67940767641142</v>
       </c>
       <c r="E255" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>11.51234258939775</v>
+        <v>9.818877398321048</v>
       </c>
       <c r="E256" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>14.87685603623607</v>
+        <v>2.247079364502105</v>
       </c>
       <c r="E257" t="n">
-        <v>31</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>18.26442764444616</v>
+        <v>16.08181026352129</v>
       </c>
       <c r="E258" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>12.23814902718823</v>
+        <v>8.113211432272792</v>
       </c>
       <c r="E259" t="n">
-        <v>71</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>26.43076369276616</v>
+        <v>4.010207551682537</v>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>16.84907381487431</v>
+        <v>1.052873768795797</v>
       </c>
       <c r="E261" t="n">
-        <v>14</v>
+        <v>12717</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>17.01337257882063</v>
+        <v>12.23021942397877</v>
       </c>
       <c r="E262" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>16.60460976578052</v>
+        <v>20.69414501154604</v>
       </c>
       <c r="E263" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>27.40662402674511</v>
+        <v>7.765394508811915</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>12.31401486227212</v>
+        <v>14.6876759409441</v>
       </c>
       <c r="E265" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>13.73496103364964</v>
+        <v>12.63194902681439</v>
       </c>
       <c r="E266" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>9.752667479708347</v>
+        <v>13.69584124549432</v>
       </c>
       <c r="E267" t="n">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>26.30805812561242</v>
+        <v>7.012133971737486</v>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>380</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>16.20402462429469</v>
+        <v>0.4124870406829952</v>
       </c>
       <c r="E269" t="n">
-        <v>18</v>
+        <v>21932</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>18.15885565010119</v>
+        <v>19.38239463444449</v>
       </c>
       <c r="E270" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>13.51619793702387</v>
+        <v>12.60033506965451</v>
       </c>
       <c r="E271" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>10.5337597612424</v>
+        <v>-5.016433146610353</v>
       </c>
       <c r="E272" t="n">
-        <v>119</v>
+        <v>301823</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>14.82588479267253</v>
+        <v>16.584489496707</v>
       </c>
       <c r="E273" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>3.567774375044626</v>
+        <v>6.810274721951595</v>
       </c>
       <c r="E274" t="n">
-        <v>798</v>
+        <v>150</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.7767555669497348</v>
+        <v>2.175833017879437</v>
       </c>
       <c r="E275" t="n">
-        <v>82065</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>9.95623781641908</v>
+        <v>7.758168449938495</v>
       </c>
       <c r="E276" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>-2.26149027522758</v>
+        <v>0.3342996344158955</v>
       </c>
       <c r="E277" t="n">
-        <v>170979</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>7.534234315784618</v>
+        <v>4.34185394573178</v>
       </c>
       <c r="E278" t="n">
-        <v>188</v>
+        <v>575</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>7.482638027897091</v>
+        <v>4.141918404567077</v>
       </c>
       <c r="E279" t="n">
-        <v>194</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>7.554537119361827</v>
+        <v>5.810278968195854</v>
       </c>
       <c r="E280" t="n">
-        <v>186</v>
+        <v>251</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>11.13480859484161</v>
+        <v>12.40055644890305</v>
       </c>
       <c r="E281" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>-3.197604152806877</v>
+        <v>1.353000232254982</v>
       </c>
       <c r="E282" t="n">
-        <v>211143</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>3.634849082350616</v>
+        <v>6.868414281921247</v>
       </c>
       <c r="E283" t="n">
-        <v>772</v>
+        <v>146</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>11.75894445258634</v>
+        <v>11.68462798822196</v>
       </c>
       <c r="E284" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>14.84800468463291</v>
+        <v>11.24987882533694</v>
       </c>
       <c r="E285" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>11.9190809010636</v>
+        <v>7.315885150801426</v>
       </c>
       <c r="E286" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>12.80971651648673</v>
+        <v>11.07300135847713</v>
       </c>
       <c r="E287" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>16.21365977946893</v>
+        <v>14.49737145537966</v>
       </c>
       <c r="E288" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>16.21365977946893</v>
+        <v>14.49737145537966</v>
       </c>
       <c r="E289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>9.119750137944866</v>
+        <v>11.17916744406449</v>
       </c>
       <c r="E290" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.2249056075163081</v>
+        <v>7.728611617537573</v>
       </c>
       <c r="E291" t="n">
-        <v>25630</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>0.4626903269092617</v>
+        <v>6.377935592237186</v>
       </c>
       <c r="E292" t="n">
-        <v>7816</v>
+        <v>184</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>5.497015634500422</v>
+        <v>10.49574973037949</v>
       </c>
       <c r="E293" t="n">
-        <v>358</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>6.441470107620351</v>
+        <v>11.45581718286796</v>
       </c>
       <c r="E294" t="n">
-        <v>261</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>-1.69432364688158</v>
+        <v>3.973865652831088</v>
       </c>
       <c r="E295" t="n">
-        <v>145145</v>
+        <v>707</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>9.228204076131201</v>
+        <v>9.354321310248087</v>
       </c>
       <c r="E296" t="n">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>6.423581688205106</v>
+        <v>6.252592234057177</v>
       </c>
       <c r="E297" t="n">
-        <v>264</v>
+        <v>198</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>9.253519954449477</v>
+        <v>9.00261253614314</v>
       </c>
       <c r="E298" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>9.380094531290855</v>
+        <v>8.884458360422332</v>
       </c>
       <c r="E299" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>12.1568710076405</v>
+        <v>8.694320419909911</v>
       </c>
       <c r="E300" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>4.401586148742904</v>
+        <v>0.1129597403069482</v>
       </c>
       <c r="E301" t="n">
-        <v>544</v>
+        <v>14206</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>4.401586148742904</v>
+        <v>0.1129597403069482</v>
       </c>
       <c r="E302" t="n">
-        <v>543</v>
+        <v>14205</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>0.6645112249981713</v>
+        <v>4.824492948720816</v>
       </c>
       <c r="E303" t="n">
-        <v>6704</v>
+        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>-6.085660994133001</v>
+        <v>8.271000605560175</v>
       </c>
       <c r="E304" t="n">
-        <v>237533</v>
+        <v>261</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>17.50888588059126</v>
+        <v>19.76759639361624</v>
       </c>
       <c r="E305" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>8.341615631445077</v>
+        <v>13.39348830347458</v>
       </c>
       <c r="E306" t="n">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>2.434740641065375</v>
+        <v>3.858169578192424</v>
       </c>
       <c r="E307" t="n">
-        <v>3991</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>-7.186413165820932</v>
+        <v>-3.71685163760846</v>
       </c>
       <c r="E308" t="n">
-        <v>257857</v>
+        <v>176256</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>-1.289052305718888</v>
+        <v>1.495388911515313</v>
       </c>
       <c r="E309" t="n">
-        <v>91777</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>12.64393363807977</v>
+        <v>16.65536542219841</v>
       </c>
       <c r="E310" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>6.80719791549388</v>
+        <v>7.916552361373562</v>
       </c>
       <c r="E311" t="n">
-        <v>504</v>
+        <v>302</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>11.2762839494754</v>
+        <v>16.1697012146163</v>
       </c>
       <c r="E312" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>11.31236349259509</v>
+        <v>15.94736388805711</v>
       </c>
       <c r="E313" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.8622628373090291</v>
+        <v>-0.3557495870986229</v>
       </c>
       <c r="E314" t="n">
-        <v>68683</v>
+        <v>32559</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>3.228566543300095</v>
+        <v>4.773291143784041</v>
       </c>
       <c r="E315" t="n">
-        <v>2557</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.471311282580829</v>
+        <v>1.651560285472296</v>
       </c>
       <c r="E316" t="n">
-        <v>44448</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>14.64598808372465</v>
+        <v>17.6130552039558</v>
       </c>
       <c r="E317" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>11.17995586472935</v>
+        <v>15.57058153867652</v>
       </c>
       <c r="E318" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>9.894425980394757</v>
+        <v>5.180050186039464</v>
       </c>
       <c r="E319" t="n">
-        <v>147</v>
+        <v>920</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>17.58216463106154</v>
+        <v>23.13131495162014</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>13.41320131431799</v>
+        <v>12.52039550515289</v>
       </c>
       <c r="E321" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>11.16739068908088</v>
+        <v>9.663780530712142</v>
       </c>
       <c r="E322" t="n">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>17.02203371149169</v>
+        <v>15.89956748374378</v>
       </c>
       <c r="E323" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>12.85244889165497</v>
+        <v>11.43580720765813</v>
       </c>
       <c r="E324" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>18.07037716060587</v>
+        <v>19.90167668521988</v>
       </c>
       <c r="E325" t="n">
         <v>2</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>10.58089216059121</v>
+        <v>11.45157816460421</v>
       </c>
       <c r="E326" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>18.23959400221731</v>
+        <v>17.05739702764531</v>
       </c>
       <c r="E327" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>8.656185212788245</v>
+        <v>12.63999459820092</v>
       </c>
       <c r="E328" t="n">
-        <v>243</v>
+        <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>7.397363222463348</v>
+        <v>9.45921646176286</v>
       </c>
       <c r="E329" t="n">
-        <v>386</v>
+        <v>167</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>-1.650375050218959</v>
+        <v>-1.228124050913373</v>
       </c>
       <c r="E330" t="n">
-        <v>112414</v>
+        <v>74826</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>5.829288046835799</v>
+        <v>3.795104160249689</v>
       </c>
       <c r="E331" t="n">
-        <v>773</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>7.374644645100439</v>
+        <v>13.61908903747217</v>
       </c>
       <c r="E332" t="n">
-        <v>390</v>
+        <v>34</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>6.056991784996409</v>
+        <v>12.80340160185233</v>
       </c>
       <c r="E333" t="n">
-        <v>701</v>
+        <v>50</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>10.03264157549872</v>
+        <v>8.956606779075866</v>
       </c>
       <c r="E334" t="n">
-        <v>140</v>
+        <v>204</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>-6.957064987886806</v>
+        <v>-4.22152267535472</v>
       </c>
       <c r="E335" t="n">
-        <v>253983</v>
+        <v>189889</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>15.02363808965892</v>
+        <v>14.18057284262055</v>
       </c>
       <c r="E336" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>-4.217001733826086</v>
+        <v>-3.248624598943374</v>
       </c>
       <c r="E337" t="n">
-        <v>195707</v>
+        <v>162817</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>0.7767736147664213</v>
+        <v>-1.028433859472859</v>
       </c>
       <c r="E338" t="n">
-        <v>11436</v>
+        <v>64655</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>0.3583844229081361</v>
+        <v>0.04476496483611569</v>
       </c>
       <c r="E339" t="n">
-        <v>15601</v>
+        <v>16769</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>6.182048993221038</v>
+        <v>11.79072736399521</v>
       </c>
       <c r="E340" t="n">
-        <v>671</v>
+        <v>78</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>-7.108579273327713</v>
+        <v>-9.174665903708437</v>
       </c>
       <c r="E341" t="n">
-        <v>256624</v>
+        <v>286105</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>-3.668581625724661</v>
+        <v>-1.734437345011887</v>
       </c>
       <c r="E342" t="n">
-        <v>182082</v>
+        <v>99949</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>-2.60082874513038</v>
+        <v>-2.828410232203369</v>
       </c>
       <c r="E343" t="n">
-        <v>152730</v>
+        <v>149591</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>2.354636499125656</v>
+        <v>6.921857083118041</v>
       </c>
       <c r="E344" t="n">
-        <v>5047</v>
+        <v>251</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>4.542996871709517</v>
+        <v>4.614046241938242</v>
       </c>
       <c r="E345" t="n">
-        <v>934</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>2.341380414296545</v>
+        <v>7.360775828420079</v>
       </c>
       <c r="E346" t="n">
-        <v>5105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>5.884218483514601</v>
+        <v>8.59414474096406</v>
       </c>
       <c r="E347" t="n">
-        <v>339</v>
+        <v>61</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>5.810019424984537</v>
+        <v>8.715565201004464</v>
       </c>
       <c r="E348" t="n">
-        <v>352</v>
+        <v>54</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>0.696394032131753</v>
+        <v>3.426290900772159</v>
       </c>
       <c r="E349" t="n">
-        <v>20409</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>-3.954675144720053</v>
+        <v>1.689376344603202</v>
       </c>
       <c r="E350" t="n">
-        <v>264924</v>
+        <v>11918</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>-2.986275025210066</v>
+        <v>5.549070039379579</v>
       </c>
       <c r="E351" t="n">
-        <v>234345</v>
+        <v>730</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>14.79927369428619</v>
+        <v>0.3006072349924196</v>
       </c>
       <c r="E352" t="n">
-        <v>13</v>
+        <v>34945</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>1.612972824249445</v>
+        <v>5.892179492732841</v>
       </c>
       <c r="E353" t="n">
-        <v>8937</v>
+        <v>554</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>18.04978961285626</v>
+        <v>2.672635496508215</v>
       </c>
       <c r="E354" t="n">
-        <v>1</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>17.60312686554762</v>
+        <v>4.24119178389228</v>
       </c>
       <c r="E355" t="n">
-        <v>3</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>10.72221509703963</v>
+        <v>-3.45366560795347</v>
       </c>
       <c r="E356" t="n">
-        <v>39</v>
+        <v>265779</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>-2.956331194127429</v>
+        <v>2.946510380812182</v>
       </c>
       <c r="E357" t="n">
-        <v>233271</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>1.166087311545461</v>
+        <v>7.002491070170658</v>
       </c>
       <c r="E358" t="n">
-        <v>12894</v>
+        <v>228</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>8.808689880275995</v>
+        <v>14.13188268208734</v>
       </c>
       <c r="E359" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>16.74067740106066</v>
+        <v>1.133591512662756</v>
       </c>
       <c r="E360" t="n">
-        <v>4</v>
+        <v>17762</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>1.867211860895211</v>
+        <v>5.743467244870802</v>
       </c>
       <c r="E361" t="n">
-        <v>7296</v>
+        <v>631</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>3.205991250872637</v>
+        <v>7.587710088073354</v>
       </c>
       <c r="E362" t="n">
-        <v>2661</v>
+        <v>130</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>13.43606606519619</v>
+        <v>-4.987989747100222</v>
       </c>
       <c r="E363" t="n">
-        <v>22</v>
+        <v>302255</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>1.99295042902562</v>
+        <v>1.369798575804823</v>
       </c>
       <c r="E364" t="n">
-        <v>6608</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>2.089074167731568</v>
+        <v>1.952271159611895</v>
       </c>
       <c r="E365" t="n">
-        <v>6162</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>5.496198732241329</v>
+        <v>6.766854366926244</v>
       </c>
       <c r="E366" t="n">
-        <v>438</v>
+        <v>270</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>2.571333785851627</v>
+        <v>6.652924808702513</v>
       </c>
       <c r="E367" t="n">
-        <v>4281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>0.4952324783761508</v>
+        <v>4.981781870555901</v>
       </c>
       <c r="E368" t="n">
-        <v>24630</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>17.80270276885911</v>
+        <v>4.901536676166012</v>
       </c>
       <c r="E369" t="n">
-        <v>2</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>0.5880354721063117</v>
+        <v>4.094178914995901</v>
       </c>
       <c r="E370" t="n">
-        <v>22533</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.7196890179637179</v>
+        <v>-0.4245237737221847</v>
       </c>
       <c r="E371" t="n">
-        <v>107602</v>
+        <v>84554</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>16.73423417935263</v>
+        <v>0.7492463093260655</v>
       </c>
       <c r="E372" t="n">
-        <v>5</v>
+        <v>24237</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>13.92183121792715</v>
+        <v>-0.02316278081324619</v>
       </c>
       <c r="E373" t="n">
-        <v>19</v>
+        <v>47369</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>15.19940369858469</v>
+        <v>0.3372171345033017</v>
       </c>
       <c r="E374" t="n">
-        <v>10</v>
+        <v>33865</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>-1.80803164521002</v>
+        <v>5.881890147903851</v>
       </c>
       <c r="E375" t="n">
-        <v>185576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>4.320847656498136</v>
+        <v>7.697425532247197</v>
       </c>
       <c r="E376" t="n">
-        <v>1145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>3.339290305720558</v>
+        <v>4.056270081481939</v>
       </c>
       <c r="E377" t="n">
-        <v>2395</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>2.942298267300103</v>
+        <v>5.981187659659282</v>
       </c>
       <c r="E378" t="n">
-        <v>3256</v>
+        <v>511</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>8.226088746201617</v>
+        <v>12.75290721165651</v>
       </c>
       <c r="E379" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>6.28338722886344</v>
+        <v>7.045788926909688</v>
       </c>
       <c r="E380" t="n">
-        <v>266</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>13.04603771943415</v>
+        <v>-3.207627059329804</v>
       </c>
       <c r="E381" t="n">
-        <v>24</v>
+        <v>257508</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>-1.552912665206032</v>
+        <v>0.6883177331841086</v>
       </c>
       <c r="E382" t="n">
-        <v>172941</v>
+        <v>25574</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>15.82226790275727</v>
+        <v>1.925080829881582</v>
       </c>
       <c r="E383" t="n">
-        <v>7</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>15.43557955235665</v>
+        <v>2.56146346989626</v>
       </c>
       <c r="E384" t="n">
-        <v>9</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>16.58159697469124</v>
+        <v>4.383782953565784</v>
       </c>
       <c r="E385" t="n">
-        <v>6</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.1394883810023639</v>
+        <v>4.309567238731514</v>
       </c>
       <c r="E386" t="n">
-        <v>50503</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>-4.016453812850094</v>
+        <v>0.9956785235408905</v>
       </c>
       <c r="E387" t="n">
-        <v>266584</v>
+        <v>19609</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>-2.179118787434774</v>
+        <v>5.841670357679441</v>
       </c>
       <c r="E388" t="n">
-        <v>202551</v>
+        <v>583</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>1.397871377948844</v>
+        <v>5.484211729755623</v>
       </c>
       <c r="E389" t="n">
-        <v>10573</v>
+        <v>772</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>0.672928828423613</v>
+        <v>1.269460303264077</v>
       </c>
       <c r="E390" t="n">
-        <v>20860</v>
+        <v>16029</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>3.040596451729994</v>
+        <v>1.712725480835187</v>
       </c>
       <c r="E391" t="n">
-        <v>3022</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>3.737932482259427</v>
+        <v>7.737961176912438</v>
       </c>
       <c r="E392" t="n">
-        <v>1794</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>0.8657532526423313</v>
+        <v>1.099334142721336</v>
       </c>
       <c r="E393" t="n">
-        <v>17076</v>
+        <v>18211</v>
       </c>
     </row>
   </sheetData>
@@ -8287,25 +8287,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I2" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="J2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="K2" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="L2" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8325,22 +8325,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I3" t="n">
         <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L3" t="n">
         <v>0.017</v>
@@ -8363,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
         <v>0.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="K4" t="n">
         <v>0.08599999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8401,25 +8401,25 @@
         <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0526</v>
+        <v>0.0789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2895</v>
+        <v>0.3158</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3158</v>
+        <v>0.4474</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.4737</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7105</v>
+        <v>0.7368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8421</v>
+        <v>0.8683999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8439,22 +8439,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1579</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2105</v>
+        <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3684</v>
+        <v>0.4211</v>
       </c>
       <c r="I6" t="n">
         <v>0.5263</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5789</v>
+        <v>0.7368</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8421</v>
+        <v>0.7895</v>
       </c>
       <c r="L6" t="n">
         <v>0.8947000000000001</v>
@@ -8477,25 +8477,25 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0877</v>
+        <v>0.0526</v>
       </c>
       <c r="G7" t="n">
         <v>0.1404</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3158</v>
+        <v>0.3509</v>
       </c>
       <c r="I7" t="n">
-        <v>0.386</v>
+        <v>0.4737</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5263</v>
+        <v>0.5614</v>
       </c>
       <c r="K7" t="n">
         <v>0.7544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8596</v>
+        <v>0.8772</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8515,25 +8515,25 @@
         <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.093</v>
+        <v>0.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3492</v>
+        <v>0.381</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2727</v>
+        <v>0.3864</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2754</v>
+        <v>0.2609</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1004</v>
+        <v>0.1041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0617</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8553,22 +8553,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2758</v>
+        <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3182</v>
+        <v>0.3637</v>
       </c>
       <c r="I9" t="n">
         <v>0.2899</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1849</v>
+        <v>0.2353</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0617</v>
+        <v>0.0578</v>
       </c>
       <c r="L9" t="n">
         <v>0.0334</v>
@@ -8591,25 +8591,25 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1613</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>0.2389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.439</v>
+        <v>0.4878</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4112</v>
+        <v>0.5047</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3822</v>
+        <v>0.4076</v>
       </c>
       <c r="K10" t="n">
         <v>0.1544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0927</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8626,28 +8626,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="K11" t="n">
-        <v>0.016</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.011</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8664,28 +8664,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="K12" t="n">
-        <v>0.016</v>
+        <v>0.048</v>
       </c>
       <c r="L12" t="n">
-        <v>0.011</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8705,25 +8705,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="K13" t="n">
-        <v>0.032</v>
+        <v>0.098</v>
       </c>
       <c r="L13" t="n">
-        <v>0.022</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8740,28 +8740,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
       <c r="K14" t="n">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8778,28 +8778,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0294</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0294</v>
+        <v>0.1176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0294</v>
+        <v>0.2059</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0882</v>
+        <v>0.3824</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2353</v>
+        <v>0.7059</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3235</v>
+        <v>0.7353</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8819,25 +8819,25 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0169</v>
+        <v>0.0508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0339</v>
+        <v>0.1017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0847</v>
+        <v>0.2373</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0847</v>
+        <v>0.3729</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1186</v>
+        <v>0.5424</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2712</v>
+        <v>0.8305</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3729</v>
+        <v>0.8475</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8854,28 +8854,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0571</v>
+        <v>0.2857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1067</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.064</v>
+        <v>0.304</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0305</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0215</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8892,28 +8892,28 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0571</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0339</v>
+        <v>0.1356</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0238</v>
+        <v>0.1667</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0448</v>
+        <v>0.194</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0213</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8933,25 +8933,25 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0312</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.058</v>
+        <v>0.1739</v>
       </c>
       <c r="H19" t="n">
-        <v>0.119</v>
+        <v>0.3333</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0917</v>
+        <v>0.4037</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.4025</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0572</v>
+        <v>0.1753</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0415</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8968,22 +8968,22 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.02</v>
@@ -9006,25 +9006,25 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
         <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="K21" t="n">
-        <v>0.044</v>
+        <v>0.036</v>
       </c>
       <c r="L21" t="n">
         <v>0.024</v>
@@ -9047,22 +9047,22 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="J22" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
-        <v>0.064</v>
+        <v>0.056</v>
       </c>
       <c r="L22" t="n">
         <v>0.034</v>
@@ -9082,22 +9082,22 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.3</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -9120,25 +9120,25 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
         <v>0.2857</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4643</v>
+        <v>0.4286</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7857</v>
+        <v>0.6429</v>
       </c>
       <c r="L24" t="n">
         <v>0.8571</v>
@@ -9161,22 +9161,22 @@
         <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1316</v>
+        <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2895</v>
+        <v>0.3158</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4211</v>
+        <v>0.3684</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5789</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8421</v>
+        <v>0.7368</v>
       </c>
       <c r="L25" t="n">
         <v>0.8947000000000001</v>
@@ -9196,22 +9196,22 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>0.2667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.2857</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2667</v>
+        <v>0.2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1636</v>
+        <v>0.1273</v>
       </c>
       <c r="K26" t="n">
         <v>0.0392</v>
@@ -9234,25 +9234,25 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0689</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1052</v>
+        <v>0.2632</v>
       </c>
       <c r="H27" t="n">
-        <v>0.151</v>
+        <v>0.2642</v>
       </c>
       <c r="I27" t="n">
         <v>0.2051</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2031</v>
+        <v>0.1875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0833</v>
+        <v>0.0682</v>
       </c>
       <c r="L27" t="n">
         <v>0.0467</v>
@@ -9275,22 +9275,22 @@
         <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2326</v>
+        <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3492</v>
+        <v>0.381</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3637</v>
+        <v>0.3182</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3188</v>
+        <v>0.2754</v>
       </c>
       <c r="K28" t="n">
-        <v>0.119</v>
+        <v>0.1041</v>
       </c>
       <c r="L28" t="n">
         <v>0.0655</v>
@@ -9316,16 +9316,16 @@
         <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I29" t="n">
         <v>0.1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="K29" t="n">
         <v>0.024</v>
@@ -9354,16 +9354,16 @@
         <v>0.4</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.2</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.12</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.1</v>
       </c>
       <c r="K30" t="n">
         <v>0.034</v>
@@ -9392,16 +9392,16 @@
         <v>0.6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I31" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="J31" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="K31" t="n">
         <v>0.058</v>
@@ -9430,16 +9430,16 @@
         <v>0.0833</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="I32" t="n">
         <v>0.4167</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5833</v>
+        <v>0.75</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -9468,16 +9468,16 @@
         <v>0.0606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1515</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2121</v>
+        <v>0.2727</v>
       </c>
       <c r="J33" t="n">
-        <v>0.303</v>
+        <v>0.3636</v>
       </c>
       <c r="K33" t="n">
         <v>0.5152</v>
@@ -9506,16 +9506,16 @@
         <v>0.0667</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.1556</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2667</v>
+        <v>0.3111</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3778</v>
+        <v>0.4667</v>
       </c>
       <c r="K34" t="n">
         <v>0.6444</v>
@@ -9544,16 +9544,16 @@
         <v>0.1176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1818</v>
+        <v>0.2727</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1622</v>
+        <v>0.2162</v>
       </c>
       <c r="I35" t="n">
         <v>0.1613</v>
       </c>
       <c r="J35" t="n">
-        <v>0.125</v>
+        <v>0.1607</v>
       </c>
       <c r="K35" t="n">
         <v>0.0469</v>
@@ -9582,16 +9582,16 @@
         <v>0.1053</v>
       </c>
       <c r="G36" t="n">
-        <v>0.093</v>
+        <v>0.186</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1034</v>
+        <v>0.1724</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1687</v>
+        <v>0.2169</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1504</v>
+        <v>0.1804</v>
       </c>
       <c r="K36" t="n">
         <v>0.0638</v>
@@ -9620,16 +9620,16 @@
         <v>0.1201</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1455</v>
+        <v>0.2546</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1714</v>
+        <v>0.2571</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2526</v>
+        <v>0.2947</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2345</v>
+        <v>0.2897</v>
       </c>
       <c r="K37" t="n">
         <v>0.1064</v>
@@ -9655,22 +9655,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J38" t="n">
         <v>0.03</v>
       </c>
       <c r="K38" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="L38" t="n">
         <v>0.007</v>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G39" t="n">
         <v>0.3</v>
@@ -9702,13 +9702,13 @@
         <v>0.2</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="L39" t="n">
         <v>0.01</v>
@@ -9731,22 +9731,22 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I40" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="L40" t="n">
         <v>0.017</v>
@@ -9769,22 +9769,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J41" t="n">
         <v>0.3</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L41" t="n">
         <v>0.7</v>
@@ -9807,7 +9807,7 @@
         <v>0.0526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="G42" t="n">
         <v>0.1579</v>
@@ -9816,13 +9816,13 @@
         <v>0.2632</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2632</v>
+        <v>0.3158</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2632</v>
+        <v>0.3684</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4737</v>
+        <v>0.4211</v>
       </c>
       <c r="L42" t="n">
         <v>0.5263</v>
@@ -9845,22 +9845,22 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.1379</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.1724</v>
-      </c>
       <c r="H43" t="n">
-        <v>0.2414</v>
+        <v>0.2759</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2414</v>
+        <v>0.3103</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2759</v>
+        <v>0.3448</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5517</v>
+        <v>0.4138</v>
       </c>
       <c r="L43" t="n">
         <v>0.5862000000000001</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2667</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1143</v>
+        <v>0.1714</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0667</v>
+        <v>0.1</v>
       </c>
       <c r="J44" t="n">
         <v>0.0545</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0275</v>
+        <v>0.0157</v>
       </c>
       <c r="L44" t="n">
         <v>0.0139</v>
@@ -9921,7 +9921,7 @@
         <v>0.0999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="G45" t="n">
         <v>0.2069</v>
@@ -9930,13 +9930,13 @@
         <v>0.2273</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1449</v>
+        <v>0.1739</v>
       </c>
       <c r="J45" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.1176</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0347</v>
+        <v>0.0308</v>
       </c>
       <c r="L45" t="n">
         <v>0.0196</v>
@@ -9959,22 +9959,22 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2352</v>
+        <v>0.1764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2564</v>
+        <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2593</v>
+        <v>0.2963</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1772</v>
+        <v>0.2278</v>
       </c>
       <c r="J46" t="n">
-        <v>0.124</v>
+        <v>0.155</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0605</v>
+        <v>0.0454</v>
       </c>
       <c r="L46" t="n">
         <v>0.033</v>
@@ -9994,25 +9994,25 @@
         <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="J47" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="K47" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="L47" t="n">
         <v>0.012</v>
@@ -10041,19 +10041,19 @@
         <v>0.2</v>
       </c>
       <c r="H48" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I48" t="n">
         <v>0.08</v>
       </c>
-      <c r="I48" t="n">
-        <v>0.06</v>
-      </c>
       <c r="J48" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="L48" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.4</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.3</v>
-      </c>
       <c r="H49" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I49" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="J49" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04</v>
+        <v>0.046</v>
       </c>
       <c r="L49" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10108,25 +10108,25 @@
         <v>387</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2143</v>
+        <v>0.4286</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5714</v>
+        <v>0.6429</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7143</v>
+        <v>0.7857</v>
       </c>
       <c r="L50" t="n">
         <v>0.8571</v>
@@ -10155,19 +10155,19 @@
         <v>0.1176</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1176</v>
+        <v>0.2353</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1765</v>
+        <v>0.2353</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2941</v>
+        <v>0.4118</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.7059</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7059</v>
+        <v>0.8235</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0645</v>
+        <v>0.0968</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0968</v>
+        <v>0.129</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1613</v>
+        <v>0.3226</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2903</v>
+        <v>0.3871</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4194</v>
+        <v>0.5161</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6452</v>
+        <v>0.7419</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7742</v>
+        <v>0.8387</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10222,25 +10222,25 @@
         <v>387</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.1052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1538</v>
+        <v>0.3077</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1404</v>
+        <v>0.1579</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0389</v>
+        <v>0.0428</v>
       </c>
       <c r="L53" t="n">
         <v>0.0237</v>
@@ -10269,19 +10269,19 @@
         <v>0.1481</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.1905</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0896</v>
+        <v>0.1194</v>
       </c>
       <c r="J54" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.1197</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0387</v>
+        <v>0.0464</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0236</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1111</v>
+        <v>0.1667</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1464</v>
+        <v>0.1951</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1786</v>
+        <v>0.3572</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2222</v>
+        <v>0.2963</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1985</v>
+        <v>0.2443</v>
       </c>
       <c r="K55" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.0866</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0466</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10336,13 +10336,13 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0.12</v>
@@ -10351,7 +10351,7 @@
         <v>0.06</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="K56" t="n">
         <v>0.01</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="I57" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="J57" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04</v>
+        <v>0.022</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10415,25 +10415,25 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I58" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="J58" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05</v>
+        <v>0.032</v>
       </c>
       <c r="L58" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,13 +10450,13 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0.6</v>
@@ -10465,7 +10465,7 @@
         <v>0.6</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>0.05</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.25</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>0.4</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J60" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10529,25 +10529,25 @@
         <v>0.04</v>
       </c>
       <c r="F61" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.2</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.32</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.64</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,13 +10564,13 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0.2</v>
@@ -10579,7 +10579,7 @@
         <v>0.1091</v>
       </c>
       <c r="J62" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0571</v>
       </c>
       <c r="K62" t="n">
         <v>0.0198</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5333</v>
+        <v>0.1333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5778</v>
+        <v>0.2222</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4571</v>
+        <v>0.2286</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3</v>
+        <v>0.1333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0769</v>
+        <v>0.0423</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0392</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10643,25 +10643,25 @@
         <v>0.0769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3333</v>
+        <v>0.2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4571</v>
+        <v>0.2857</v>
       </c>
       <c r="H64" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5067</v>
+        <v>0.2933</v>
       </c>
       <c r="J64" t="n">
-        <v>0.368</v>
+        <v>0.176</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0488</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10687,19 +10687,19 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.02</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>0.01</v>
       </c>
-      <c r="K65" t="n">
-        <v>0.008</v>
-      </c>
       <c r="L65" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10719,25 +10719,25 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H66" t="n">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="J66" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="K66" t="n">
-        <v>0.032</v>
+        <v>0.016</v>
       </c>
       <c r="L66" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10757,25 +10757,25 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="J67" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="K67" t="n">
-        <v>0.04</v>
+        <v>0.026</v>
       </c>
       <c r="L67" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10801,19 +10801,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10833,25 +10833,25 @@
         <v>0.0238</v>
       </c>
       <c r="F69" t="n">
-        <v>0.119</v>
+        <v>0.0476</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2143</v>
+        <v>0.0476</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2857</v>
+        <v>0.0476</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3095</v>
+        <v>0.0476</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3571</v>
+        <v>0.0476</v>
       </c>
       <c r="K69" t="n">
-        <v>0.381</v>
+        <v>0.1905</v>
       </c>
       <c r="L69" t="n">
-        <v>0.4048</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10871,25 +10871,25 @@
         <v>0.02</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="G70" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="H70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K70" t="n">
         <v>0.26</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0.4</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10915,19 +10915,19 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0185</v>
+        <v>0.037</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0157</v>
+        <v>0.0197</v>
       </c>
       <c r="L71" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10947,25 +10947,25 @@
         <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2127</v>
+        <v>0.0851</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3462</v>
+        <v>0.0769</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3582</v>
+        <v>0.0597</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2826</v>
+        <v>0.0435</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2113</v>
+        <v>0.0282</v>
       </c>
       <c r="K72" t="n">
-        <v>0.059</v>
+        <v>0.0295</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0326</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10985,25 +10985,25 @@
         <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818</v>
+        <v>0.0727</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>0.0667</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3467</v>
+        <v>0.0533</v>
       </c>
       <c r="I73" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2133</v>
+        <v>0.0533</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0727</v>
+        <v>0.0473</v>
       </c>
       <c r="L73" t="n">
-        <v>0.04</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11029,16 +11029,16 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J74" t="n">
         <v>0.05</v>
       </c>
       <c r="K74" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="L74" t="n">
         <v>0.007</v>
@@ -11061,22 +11061,22 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.14</v>
       </c>
-      <c r="J75" t="n">
-        <v>0.09</v>
-      </c>
       <c r="K75" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="L75" t="n">
         <v>0.018</v>
@@ -11099,22 +11099,22 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.28</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.2</v>
-      </c>
       <c r="J76" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K76" t="n">
-        <v>0.042</v>
+        <v>0.048</v>
       </c>
       <c r="L76" t="n">
         <v>0.025</v>
@@ -11143,16 +11143,16 @@
         <v>0.2857</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="J77" t="n">
         <v>0.7143</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8571</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
@@ -11175,22 +11175,22 @@
         <v>0.0303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0606</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1515</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1212</v>
+        <v>0.1818</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2121</v>
+        <v>0.303</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2727</v>
+        <v>0.4242</v>
       </c>
       <c r="K78" t="n">
-        <v>0.4545</v>
+        <v>0.5152</v>
       </c>
       <c r="L78" t="n">
         <v>0.5455</v>
@@ -11213,22 +11213,22 @@
         <v>0.025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.125</v>
+        <v>0.175</v>
       </c>
       <c r="H79" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="J79" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="K79" t="n">
-        <v>0.525</v>
+        <v>0.6</v>
       </c>
       <c r="L79" t="n">
         <v>0.625</v>
@@ -11257,16 +11257,16 @@
         <v>0.2353</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1053</v>
+        <v>0.1404</v>
       </c>
       <c r="J80" t="n">
         <v>0.0935</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0237</v>
+        <v>0.0276</v>
       </c>
       <c r="L80" t="n">
         <v>0.0139</v>
@@ -11289,22 +11289,22 @@
         <v>0.0588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1579</v>
+        <v>0.1053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1395</v>
+        <v>0.2325</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1379</v>
+        <v>0.2069</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1687</v>
+        <v>0.241</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1353</v>
+        <v>0.2105</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0563</v>
+        <v>0.0638</v>
       </c>
       <c r="L81" t="n">
         <v>0.0349</v>
@@ -11327,22 +11327,22 @@
         <v>0.0488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2222</v>
+        <v>0.1778</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2154</v>
+        <v>0.3077</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2222</v>
+        <v>0.3111</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2</v>
+        <v>0.2714</v>
       </c>
       <c r="K82" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="L82" t="n">
         <v>0.0481</v>
@@ -11406,13 +11406,13 @@
         <v>0.6</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="J84" t="n">
         <v>0.14</v>
@@ -11444,13 +11444,13 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I85" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="J85" t="n">
         <v>0.16</v>
@@ -11520,13 +11520,13 @@
         <v>0.1875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I87" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="J87" t="n">
         <v>0.875</v>
@@ -11558,13 +11558,13 @@
         <v>0.2778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5556</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7778</v>
+        <v>0.8333</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8889</v>
+        <v>0.8333</v>
       </c>
       <c r="J88" t="n">
         <v>0.8889</v>
@@ -11634,13 +11634,13 @@
         <v>0.2857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5854</v>
+        <v>0.6341</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4242</v>
+        <v>0.3939</v>
       </c>
       <c r="J90" t="n">
         <v>0.2414</v>
@@ -11672,13 +11672,13 @@
         <v>0.4348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7143</v>
+        <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6512</v>
+        <v>0.6977</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4706</v>
+        <v>0.4412</v>
       </c>
       <c r="J91" t="n">
         <v>0.2712</v>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07560568086883875</v>
+        <v>0.131077694235589</v>
       </c>
       <c r="H2" t="n">
-        <v>0.150508658008658</v>
+        <v>0.2264164198374725</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1575262018683072</v>
+        <v>0.2789461854558808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1951753221606772</v>
+        <v>0.2849421881207708</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2224658322983454</v>
+        <v>0.3177976767228525</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2277718284768016</v>
+        <v>0.3232052893696679</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07543859649122805</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1017543859649123</v>
+        <v>0.01827485380116959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1745307324254693</v>
+        <v>0.115711597303173</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2133971291866029</v>
+        <v>0.1426992792740576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2216678058783322</v>
+        <v>0.1774122660393899</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2377763878324334</v>
+        <v>0.1813794704826589</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2390712313087073</v>
+        <v>0.183593005407321</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1337023113338903</v>
+        <v>0.1176970203285993</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2704313084576243</v>
+        <v>0.2995780571428283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3081551051287894</v>
+        <v>0.3782450371506464</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3566428801289677</v>
+        <v>0.412808533951275</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3993325021717722</v>
+        <v>0.4519737934530521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.406004139549818</v>
+        <v>0.4595408203223031</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11875,28 +11875,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004444444444444444</v>
+        <v>0.1652380952380952</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02082539682539682</v>
+        <v>0.2597576047141265</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02082539682539682</v>
+        <v>0.3270909213945318</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02082539682539682</v>
+        <v>0.3683583122845642</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02508850147008536</v>
+        <v>0.3930543908545877</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02653366552425752</v>
+        <v>0.3930543908545877</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11913,28 +11913,28 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.00326797385620915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01708259061200237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.03342169581218393</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03163426387504154</v>
+        <v>0.06070678242855995</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03453044521541072</v>
+        <v>0.09236645612677068</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03592746544707578</v>
+        <v>0.09366786164473007</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02071563088512241</v>
+        <v>0.08131557707828894</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03001748722087705</v>
+        <v>0.1614653114837345</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03001748722087705</v>
+        <v>0.2307908777693078</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03338896412725772</v>
+        <v>0.2995306827169833</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03996428798004563</v>
+        <v>0.3582741396666237</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0427129090994191</v>
+        <v>0.3597740646703735</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2583333333333333</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3816450216450216</v>
+        <v>0.2495238095238095</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4038672438672438</v>
+        <v>0.2657400257400258</v>
       </c>
       <c r="J8" t="n">
-        <v>0.416543300205272</v>
+        <v>0.2740733590733591</v>
       </c>
       <c r="K8" t="n">
-        <v>0.425977262469423</v>
+        <v>0.2824216333764419</v>
       </c>
       <c r="L8" t="n">
-        <v>0.425977262469423</v>
+        <v>0.2824216333764419</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12027,28 +12027,28 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.03214285714285715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>0.08769841269841271</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06290760869565216</v>
+        <v>0.1210678210678211</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08879680846158003</v>
+        <v>0.1320568320568321</v>
       </c>
       <c r="J9" t="n">
-        <v>0.122331952689975</v>
+        <v>0.1493019283021334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1485255213717047</v>
+        <v>0.1652520941407147</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1509884752515676</v>
+        <v>0.1717024838932313</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131578947368421</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1909043441938179</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2302250809830901</v>
+        <v>0.2541605908711172</v>
       </c>
       <c r="I10" t="n">
-        <v>0.281997994449552</v>
+        <v>0.2772758113547587</v>
       </c>
       <c r="J10" t="n">
-        <v>0.333023890647237</v>
+        <v>0.3031888940106083</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3691962566068695</v>
+        <v>0.3271088266549866</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3717865392027382</v>
+        <v>0.3340957104024901</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03935185185185185</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05071548821548821</v>
+        <v>0.1215728715728716</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07071314244959566</v>
+        <v>0.1300762729334158</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08461099191196125</v>
+        <v>0.1645477066478903</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1062290592410569</v>
+        <v>0.183338229552122</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1062290592410569</v>
+        <v>0.183338229552122</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12144,25 +12144,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.08282828282828283</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05445761967501097</v>
+        <v>0.09365079365079365</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0770307618559963</v>
+        <v>0.1221003011325592</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08775475128457047</v>
+        <v>0.1341244034639902</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1023049999693552</v>
+        <v>0.1463785802252823</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1055461402873658</v>
+        <v>0.1498771988565685</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12182,25 +12182,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0537037037037037</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06358024691358023</v>
+        <v>0.1277248677248677</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07442785341336064</v>
+        <v>0.1581721981721982</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1139308000221381</v>
+        <v>0.196820475422626</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1355465841325012</v>
+        <v>0.2333579102895525</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1669322610920329</v>
+        <v>0.2601270274981535</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1707851810880753</v>
+        <v>0.2642843769282123</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12220,25 +12220,25 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.045</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.045</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1223270440251572</v>
+        <v>0.045</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1295346366012376</v>
+        <v>0.04642348754448399</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1295346366012376</v>
+        <v>0.04919889202065573</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12258,25 +12258,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1311004784688995</v>
+        <v>0.1838972431077694</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1311004784688995</v>
+        <v>0.1944235588972431</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1311004784688995</v>
+        <v>0.2000915750915751</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1407639690973736</v>
+        <v>0.2033810487757856</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1413127863960948</v>
+        <v>0.2046050426468383</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1310344827586207</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1597701149425287</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1895506792058516</v>
+        <v>0.1761083743842364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1895506792058516</v>
+        <v>0.1864532019704433</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1947556239033142</v>
+        <v>0.1917582417582417</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2104551841810028</v>
+        <v>0.1961941771490873</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2110664531033716</v>
+        <v>0.1998415510129705</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12331,28 +12331,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007142857142857144</v>
+        <v>0.09183673469387754</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02987012987012987</v>
+        <v>0.1739923242024082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05727298064254586</v>
+        <v>0.198717598927683</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06825852360789106</v>
+        <v>0.2099957944164048</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07812260573210968</v>
+        <v>0.2201262575605665</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08021448420697931</v>
+        <v>0.2216169407903802</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03823529411764706</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03823529411764706</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03823529411764706</v>
+        <v>0.09215686274509803</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04313725490196079</v>
+        <v>0.09215686274509803</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0497027079823212</v>
+        <v>0.106299369854357</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05917422267196034</v>
+        <v>0.1203126876400782</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0616634374023764</v>
+        <v>0.1226798777442163</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02096774193548387</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03064516129032258</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04970674486803519</v>
+        <v>0.2043245890731659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07495593272241238</v>
+        <v>0.2214875336554653</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09167692313533299</v>
+        <v>0.2485837150754823</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1104594075851822</v>
+        <v>0.2727339385118934</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1149427348014298</v>
+        <v>0.276534661499553</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12445,28 +12445,28 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06775362318840579</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06775362318840579</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09092599072697051</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09092599072697051</v>
+        <v>0.4203359858532272</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09092599072697051</v>
+        <v>0.4203359858532272</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.25</v>
+        <v>0.025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3810515873015873</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5601245976245977</v>
+        <v>0.0783604077082338</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6146567733981328</v>
+        <v>0.1056936213205172</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6428788230875738</v>
+        <v>0.1056936213205172</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6574409637333057</v>
+        <v>0.1100012180918577</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6574409637333057</v>
+        <v>0.1100012180918577</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3048412698412698</v>
+        <v>0.1716666666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5553984783332609</v>
+        <v>0.224041248606466</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6078441662858615</v>
+        <v>0.2553703318425259</v>
       </c>
       <c r="J22" t="n">
-        <v>0.657650540764618</v>
+        <v>0.2553703318425259</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6722967150237955</v>
+        <v>0.2674225997055477</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6722967150237955</v>
+        <v>0.2674225997055477</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12568,19 +12568,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009615384615384616</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009615384615384616</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.00641317547055252</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0130818834751648</v>
+        <v>0.01438822618413188</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0130818834751648</v>
+        <v>0.01571565981245046</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12600,25 +12600,25 @@
         <v>0.02380952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>0.119047619047619</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2092592592592593</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2456001113895851</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2535366193260931</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2626902807906789</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2635600350850907</v>
+        <v>0.05157977764384897</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2639933990088186</v>
+        <v>0.05418671472377679</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12638,25 +12638,25 @@
         <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1757777777777778</v>
+        <v>0.04</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2244837647732385</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2316632519527257</v>
+        <v>0.04</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2398845404681318</v>
+        <v>0.04242258652094717</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2442174703231864</v>
+        <v>0.05070056979268289</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2446671491240429</v>
+        <v>0.05454879895920595</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12676,25 +12676,25 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09285714285714286</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09285714285714286</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1154135338345865</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1154135338345865</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="J26" t="n">
-        <v>0.133382458493652</v>
+        <v>0.198501872659176</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1417042338057185</v>
+        <v>0.2072380857293651</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1436883607898455</v>
+        <v>0.2072380857293651</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12714,25 +12714,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1022126022126022</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09956709956709957</v>
+        <v>0.1187415278324369</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1158835389985365</v>
+        <v>0.146373973111941</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1237453741330989</v>
+        <v>0.1688071763793051</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1334138991797921</v>
+        <v>0.1758794743019511</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1355769893751298</v>
+        <v>0.1764723596774451</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.125</v>
+        <v>0.1520238095238095</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1449248120300752</v>
+        <v>0.2045806277056277</v>
       </c>
       <c r="I28" t="n">
-        <v>0.165218492940816</v>
+        <v>0.2383546075678429</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1834332926168833</v>
+        <v>0.2682302986273818</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1990947373384392</v>
+        <v>0.281424466696617</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2027073954121237</v>
+        <v>0.282103814522704</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12831,22 +12831,22 @@
         <v>0.1104166666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3422123015873016</v>
+        <v>0.2873511904761905</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5377902981521402</v>
+        <v>0.5661213378125142</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5980553045378362</v>
+        <v>0.5661213378125142</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5980553045378362</v>
+        <v>0.5814722150054966</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5980553045378362</v>
+        <v>0.5814722150054966</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5980553045378362</v>
+        <v>0.5814722150054966</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12869,22 +12869,22 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4944444444444445</v>
       </c>
       <c r="H31" t="n">
-        <v>0.763157894736842</v>
+        <v>0.7907927040279982</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8246734332638748</v>
+        <v>0.7907927040279982</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8246734332638748</v>
+        <v>0.8063872459383296</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8246734332638748</v>
+        <v>0.8063872459383296</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8246734332638748</v>
+        <v>0.8063872459383296</v>
       </c>
     </row>
   </sheetData>
